--- a/Data_tables.xlsx
+++ b/Data_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kareem.b\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68E1CAE-F556-478F-B95C-31C0A52B3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBBC886-3722-45EC-91BE-2CAEAF84969C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACACDEMIC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="131">
   <si>
     <t>arabic</t>
   </si>
@@ -415,9 +415,6 @@
   </si>
   <si>
     <t>SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE2</t>
   </si>
   <si>
     <t>GENDER</t>
@@ -505,217 +502,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1005,7 +792,7 @@
   <autoFilter ref="A1:C28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SERVICE"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="SERVICE2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="arabic"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="english"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1365,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1377,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1627,7 +1414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1721,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,8 +1524,8 @@
       <c r="A1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>130</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>

--- a/Data_tables.xlsx
+++ b/Data_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kareem.b\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBBC886-3722-45EC-91BE-2CAEAF84969C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68E1CAE-F556-478F-B95C-31C0A52B3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACACDEMIC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
   <si>
     <t>arabic</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE2</t>
   </si>
   <si>
     <t>GENDER</t>
@@ -502,7 +505,217 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -792,7 +1005,7 @@
   <autoFilter ref="A1:C28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SERVICE"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="arabic"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="SERVICE2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="english"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1152,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1164,7 +1377,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1414,9 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1510,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,8 +1735,8 @@
       <c r="A1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>

--- a/Data_tables.xlsx
+++ b/Data_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kareem.b\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B68E1CAE-F556-478F-B95C-31C0A52B3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AB048D-EB7F-467D-8403-F2D38DE2D5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACACDEMIC" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,27 @@
     <sheet name="SECTOR" sheetId="4" r:id="rId4"/>
     <sheet name="CENTER" sheetId="5" r:id="rId5"/>
     <sheet name="SERVICE" sheetId="6" r:id="rId6"/>
+    <sheet name="Questions" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="246">
   <si>
     <t>arabic</t>
   </si>
@@ -417,17 +431,359 @@
     <t>SERVICE</t>
   </si>
   <si>
-    <t>SERVICE2</t>
-  </si>
-  <si>
     <t>GENDER</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Dim1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تتوفر المعلومات المطلوبة للخدمة من خلال قنوات متعددة </t>
+  </si>
+  <si>
+    <t>Dim1.2</t>
+  </si>
+  <si>
+    <t>تتوفر فرص الاستفسار من خلال قنوات متعددة</t>
+  </si>
+  <si>
+    <t>Dim2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقدم الخدمات خلال أوقات مناسبة للمتعاملين </t>
+  </si>
+  <si>
+    <t>Dim2.2</t>
+  </si>
+  <si>
+    <t>تتوفر مواقف سيارات مناسبة لجميع فئات المتعاملين</t>
+  </si>
+  <si>
+    <t>Dim2.3</t>
+  </si>
+  <si>
+    <t>موقع مركز سعادة المتعاملين مناسب ويسهل الوصول إليه</t>
+  </si>
+  <si>
+    <t>Dim3.1</t>
+  </si>
+  <si>
+    <t>تعرض معلومات الخدمة على لوحات معلوماتية</t>
+  </si>
+  <si>
+    <t>Dim3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تتصف عملية الاستقبال والإرشاد بالسلاسة والترحاب</t>
+  </si>
+  <si>
+    <t>Dim3.3</t>
+  </si>
+  <si>
+    <t>مرافق المؤسسة جذابة وحديثة</t>
+  </si>
+  <si>
+    <t>Dim3.4</t>
+  </si>
+  <si>
+    <t>مظهر الموظفين لائق وأنيق</t>
+  </si>
+  <si>
+    <t>Dim3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مرافق الانتظار مناسبة لجميع فئات المتعاملين</t>
+  </si>
+  <si>
+    <t>Dim3.6</t>
+  </si>
+  <si>
+    <t>تتوفر خدمات مجانية في مرافق الانتظار (وايفاي، شحن الهاتف،..)</t>
+  </si>
+  <si>
+    <t>Dim3.7</t>
+  </si>
+  <si>
+    <t>مدة انتظار تقديم الخدمة معقولة</t>
+  </si>
+  <si>
+    <t>Dim3.8</t>
+  </si>
+  <si>
+    <t>يتم الالتزام بمعايير وإجراءات الصحة والسلامة</t>
+  </si>
+  <si>
+    <t>Dim4.1</t>
+  </si>
+  <si>
+    <t>يستقبل مقدمو الخدمة المتعاملين ببشاشة ويتعاملون معهم بلطف</t>
+  </si>
+  <si>
+    <t>Dim4.2</t>
+  </si>
+  <si>
+    <t>يضع مقدمو الخدمة مصلحة متعامليهم فوق كل اعتبار</t>
+  </si>
+  <si>
+    <t>Dim4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقدمو الخدمة على استعداد دائم للاستجابة الفورية لطلبات المتعاملين </t>
+  </si>
+  <si>
+    <t>Dim4.4</t>
+  </si>
+  <si>
+    <t>يمتلك مقدمو الخدمة المعرفة للإجابة على أسئلة المتعاملين</t>
+  </si>
+  <si>
+    <t>Dim4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إجراءات الخدمة سهلة وبسيطة (أقل نوافذ ومتطلبات وتنقل وزيارات ) </t>
+  </si>
+  <si>
+    <t>Dim4.6</t>
+  </si>
+  <si>
+    <t>لا يحتاج المتعاملون إلى إعادة توفير مستندات قد وفروها من قبل</t>
+  </si>
+  <si>
+    <t>Dim4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تُقدم الخدمة كما وُعِد (من حيث الإجراءات والمستندات المطلوبة). </t>
+  </si>
+  <si>
+    <t>Dim4.8</t>
+  </si>
+  <si>
+    <t>تُنجَز الخدمة بشكل صحيح من أول مرة</t>
+  </si>
+  <si>
+    <t>Dim4.9</t>
+  </si>
+  <si>
+    <t>تُنجز الخدمة في الوقت المحدد</t>
+  </si>
+  <si>
+    <t>Dim4.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> يجيد مقدمو الخدمة اللغة التي أستخدمها</t>
+  </si>
+  <si>
+    <t>Dim4.11</t>
+  </si>
+  <si>
+    <t>رسوم الخدمة مناسبة</t>
+  </si>
+  <si>
+    <t>Dim4.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تتسم عملية دفع رسوم الخدمة بالسهولة </t>
+  </si>
+  <si>
+    <t>Dim5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تطلع المؤسسة المتعاملين على سير إجراءات (حالة) الخدمة إن لزم الأمر </t>
+  </si>
+  <si>
+    <t>Dim5.2</t>
+  </si>
+  <si>
+    <t>تستجيب المؤسسة لشكاوي المتعامل بسرعة وفاعلية</t>
+  </si>
+  <si>
+    <t>Dim5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توفر المؤسسة للمتعاملين فرص تقييم الخدمة وتقديم المقترحات </t>
+  </si>
+  <si>
+    <t>Dim6.1</t>
+  </si>
+  <si>
+    <t>بشكل عام، ما مدى سعادتك برحلتك كمتعامل</t>
+  </si>
+  <si>
+    <t>Dim6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بشكل عام، ما مدى سعادتك بالقيمة التي حصلت عليها من هذه الرحلة مقابل الجهد والتكلفة </t>
+  </si>
+  <si>
+    <t>Most_Sat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ما هو أكثر شيء أسعدك في رحلة هذه الخدمة؟ </t>
+  </si>
+  <si>
+    <t>Most_Unsat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ما هو أكثر شيء أزعجك في رحلة هذه الخدمة؟ </t>
+  </si>
+  <si>
+    <t>NPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">على مقياس من 1 إلى 10، حيث 1 غير محتمل على الإطلاق و10 محتمل للغاية؛ ما مدى احتمالية أن توصي بالحصول على الخدمة من هذا المركز، لأفراد العائلة والأصدقاء </t>
+  </si>
+  <si>
+    <t>Dim1</t>
+  </si>
+  <si>
+    <t>ماقبل الخدمة</t>
+  </si>
+  <si>
+    <t>Dim2</t>
+  </si>
+  <si>
+    <t>الوصول لمركز الخدمة</t>
+  </si>
+  <si>
+    <t>Dim3</t>
+  </si>
+  <si>
+    <t>الدخول و الانتظار</t>
+  </si>
+  <si>
+    <t>Dim4</t>
+  </si>
+  <si>
+    <t>تقديم الخدمة</t>
+  </si>
+  <si>
+    <t>Dim5</t>
+  </si>
+  <si>
+    <t>ما بعد الزيارة</t>
+  </si>
+  <si>
+    <t>The information required for the service is available through multiple channels</t>
+  </si>
+  <si>
+    <t>Opportunities for inquiry are available through multiple channels</t>
+  </si>
+  <si>
+    <t>Providing services during convenient times for customers</t>
+  </si>
+  <si>
+    <t>Suitable parking is available for all categories of customers</t>
+  </si>
+  <si>
+    <t>The location of the Customer Happiness Center is convenient and easy to access</t>
+  </si>
+  <si>
+    <t>Service information is displayed on dashboards</t>
+  </si>
+  <si>
+    <t>The reception and guidance process is smooth and welcoming</t>
+  </si>
+  <si>
+    <t>The facilities of the establishment are attractive and modern</t>
+  </si>
+  <si>
+    <t>The appearance of the staff is decent and neat</t>
+  </si>
+  <si>
+    <t>Waiting facilities suitable for all categories of customers</t>
+  </si>
+  <si>
+    <t>Free services are available at the waiting facilities (Wi-Fi, phone charging, ...)</t>
+  </si>
+  <si>
+    <t>Reasonable waiting time for service delivery</t>
+  </si>
+  <si>
+    <t>Health and safety standards and procedures are adhered to</t>
+  </si>
+  <si>
+    <t>Service providers receive customers with kindness and treat them with kindness</t>
+  </si>
+  <si>
+    <t>Service providers put the interest of their customers above all considerations</t>
+  </si>
+  <si>
+    <t>Service providers are always ready to respond promptly to customer requests</t>
+  </si>
+  <si>
+    <t>Service providers have the knowledge to answer customer questions</t>
+  </si>
+  <si>
+    <t>Easy and simple service procedures (fewer windows, requirements, mobility and visits)</t>
+  </si>
+  <si>
+    <t>Customers do not need to re-provide documents they have previously provided</t>
+  </si>
+  <si>
+    <t>The service is provided as promised (in terms of procedures and required documents).</t>
+  </si>
+  <si>
+    <t>The service is done correctly from the first time</t>
+  </si>
+  <si>
+    <t>The service is completed on time</t>
+  </si>
+  <si>
+    <t>The service providers are fluent in the language I use</t>
+  </si>
+  <si>
+    <t>Service Fee Suitable</t>
+  </si>
+  <si>
+    <t>The process of paying for the service is easy</t>
+  </si>
+  <si>
+    <t>The Corporation informs customers of the progress of the service procedures (status) if necessary</t>
+  </si>
+  <si>
+    <t>The establishment responds to customer complaints quickly and effectively</t>
+  </si>
+  <si>
+    <t>The Foundation provides customers with opportunities to evaluate the service and submit suggestions</t>
+  </si>
+  <si>
+    <t>Overall, how happy are you with your journey as a customer</t>
+  </si>
+  <si>
+    <t>Overall, how happy are you with the value you got from this trip for effort and cost</t>
+  </si>
+  <si>
+    <t>What has made you happiest about this service's journey?</t>
+  </si>
+  <si>
+    <t>What bothered you the most about this service's journey?</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 10, where 1 is not at all likely and 10 is highly likely, how likely are you to recommend the service from this center, to family members and friends</t>
+  </si>
+  <si>
+    <t>Pre-service</t>
+  </si>
+  <si>
+    <t>Access to the Service Center</t>
+  </si>
+  <si>
+    <t>Entry and Waiting</t>
+  </si>
+  <si>
+    <t>Service Delivery</t>
+  </si>
+  <si>
+    <t>After the visit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,16 +810,35 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -486,12 +861,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -500,264 +886,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -1005,7 +1148,7 @@
   <autoFilter ref="A1:C28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SERVICE"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="SERVICE2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="arabic"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="english"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1365,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1377,7 +1520,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1627,7 +1770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1722,7 +1867,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,8 +1880,8 @@
       <c r="A1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>130</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2045,4 +2190,453 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0061E2EE-40E6-466C-B023-81B220A82753}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data_tables.xlsx
+++ b/Data_tables.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kareem.b\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egarakae-my.sharepoint.com/personal/jaouadi_sspge_rak_ae/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AB048D-EB7F-467D-8403-F2D38DE2D5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{9E733B74-9BF2-491C-8F98-512C68BFA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB6C2583-C94A-450C-A828-435C490CB12B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ACACDEMIC" sheetId="1" r:id="rId1"/>
+    <sheet name="ACADEMIC" sheetId="1" r:id="rId1"/>
     <sheet name="GENDER" sheetId="2" r:id="rId2"/>
     <sheet name="NATIONALITY" sheetId="3" r:id="rId3"/>
     <sheet name="SECTOR" sheetId="4" r:id="rId4"/>
@@ -21,7 +21,7 @@
     <sheet name="SERVICE" sheetId="6" r:id="rId6"/>
     <sheet name="Questions" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -419,9 +419,6 @@
     <t>CENTER</t>
   </si>
   <si>
-    <t>ACACDEMIC_LEVEL</t>
-  </si>
-  <si>
     <t>NATIONALITY</t>
   </si>
   <si>
@@ -777,12 +774,15 @@
   </si>
   <si>
     <t>After the visit</t>
+  </si>
+  <si>
+    <t>ACACDEMIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,133 +900,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1070,7 +944,9 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6C5304B3-515E-4F56-91FE-BFA442C795B8}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1086,7 +962,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_ACACDEMIC" displayName="tbl_ACACDEMIC" ref="A1:C4">
   <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ACACDEMIC_LEVEL"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ACACDEMIC"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="arabic"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="english"/>
   </tableColumns>
@@ -1442,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,8 +1329,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>126</v>
+      <c r="A1" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1520,7 +1396,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1574,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1705,7 +1581,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1878,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2196,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0061E2EE-40E6-466C-B023-81B220A82753}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2209,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2220,420 +2096,420 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" t="s">
         <v>198</v>
       </c>
-      <c r="B35" t="s">
-        <v>199</v>
-      </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="s">
         <v>200</v>
       </c>
-      <c r="B36" t="s">
-        <v>201</v>
-      </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
         <v>202</v>
       </c>
-      <c r="B37" t="s">
-        <v>203</v>
-      </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
         <v>204</v>
       </c>
-      <c r="B38" t="s">
-        <v>205</v>
-      </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
         <v>206</v>
       </c>
-      <c r="B39" t="s">
-        <v>207</v>
-      </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Data_tables.xlsx
+++ b/Data_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egarakae-my.sharepoint.com/personal/jaouadi_sspge_rak_ae/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{9E733B74-9BF2-491C-8F98-512C68BFA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB6C2583-C94A-450C-A828-435C490CB12B}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{9E733B74-9BF2-491C-8F98-512C68BFA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C438A48-7DB7-4329-9B8F-C62BF2590B40}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="SERVICE" sheetId="6" r:id="rId6"/>
     <sheet name="Questions" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -900,7 +900,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -959,7 +1001,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_ACACDEMIC" displayName="tbl_ACACDEMIC" ref="A1:C4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_ACADEMIC" displayName="tbl_ACADEMIC" ref="A1:C4">
   <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ACACDEMIC"/>
@@ -1319,7 +1361,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_tables.xlsx
+++ b/Data_tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egarakae-my.sharepoint.com/personal/jaouadi_sspge_rak_ae/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egarakae-my.sharepoint.com/personal/jaouadi_sspge_rak_ae/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{9E733B74-9BF2-491C-8F98-512C68BFA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C438A48-7DB7-4329-9B8F-C62BF2590B40}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5710CE5B-7F23-4919-919C-BB40254E152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B3432A1-CB0A-494A-8195-960CE0A11E96}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
     <t>After the visit</t>
   </si>
   <si>
-    <t>ACACDEMIC</t>
+    <t>ACADEMIC</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,91 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1004,7 +1088,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_ACADEMIC" displayName="tbl_ACADEMIC" ref="A1:C4">
   <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ACACDEMIC"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ACADEMIC"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="arabic"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="english"/>
   </tableColumns>
@@ -1361,7 +1445,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_tables.xlsx
+++ b/Data_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://egarakae-my.sharepoint.com/personal/jaouadi_sspge_rak_ae/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balqees.s\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5710CE5B-7F23-4919-919C-BB40254E152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B3432A1-CB0A-494A-8195-960CE0A11E96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFDC91F-FB0C-4BA7-B4FA-F1FDDE735D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACADEMIC" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
   <si>
     <t>arabic</t>
   </si>
@@ -50,9 +50,6 @@
     <t>ثانوي أو أقل</t>
   </si>
   <si>
-    <t xml:space="preserve">Secondary School or below </t>
-  </si>
-  <si>
     <t>بكالوريوس أو أعلى</t>
   </si>
   <si>
@@ -86,15 +83,9 @@
     <t>خليجي</t>
   </si>
   <si>
-    <t>GCC</t>
-  </si>
-  <si>
     <t>عربي</t>
   </si>
   <si>
-    <t>Arabic</t>
-  </si>
-  <si>
     <t>آسيوي</t>
   </si>
   <si>
@@ -122,15 +113,9 @@
     <t>شمال أمريكا</t>
   </si>
   <si>
-    <t>North America</t>
-  </si>
-  <si>
     <t>جنوب أمريكا</t>
   </si>
   <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>شخصي</t>
   </si>
   <si>
@@ -275,18 +260,12 @@
     <t>تسجيل عقد البيع العقاري</t>
   </si>
   <si>
-    <t>Real Estate Sale Contract Registration</t>
-  </si>
-  <si>
     <t>Q233_3</t>
   </si>
   <si>
     <t>طلب تحديث وتجديد</t>
   </si>
   <si>
-    <t>Update &amp; Renew Request</t>
-  </si>
-  <si>
     <t>Q233_4</t>
   </si>
   <si>
@@ -332,9 +311,6 @@
     <t>Q233_9</t>
   </si>
   <si>
-    <t>اجابه اخرى</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -395,9 +371,6 @@
     <t xml:space="preserve"> التركات والمواريث</t>
   </si>
   <si>
-    <t xml:space="preserve">Estates and inheritance </t>
-  </si>
-  <si>
     <t>Q326_4</t>
   </si>
   <si>
@@ -662,128 +635,158 @@
     <t>ما بعد الزيارة</t>
   </si>
   <si>
-    <t>The information required for the service is available through multiple channels</t>
-  </si>
-  <si>
-    <t>Opportunities for inquiry are available through multiple channels</t>
-  </si>
-  <si>
-    <t>Providing services during convenient times for customers</t>
-  </si>
-  <si>
-    <t>Suitable parking is available for all categories of customers</t>
-  </si>
-  <si>
-    <t>The location of the Customer Happiness Center is convenient and easy to access</t>
-  </si>
-  <si>
-    <t>Service information is displayed on dashboards</t>
-  </si>
-  <si>
-    <t>The reception and guidance process is smooth and welcoming</t>
-  </si>
-  <si>
-    <t>The facilities of the establishment are attractive and modern</t>
-  </si>
-  <si>
-    <t>The appearance of the staff is decent and neat</t>
-  </si>
-  <si>
-    <t>Waiting facilities suitable for all categories of customers</t>
-  </si>
-  <si>
-    <t>Free services are available at the waiting facilities (Wi-Fi, phone charging, ...)</t>
-  </si>
-  <si>
-    <t>Reasonable waiting time for service delivery</t>
-  </si>
-  <si>
-    <t>Health and safety standards and procedures are adhered to</t>
-  </si>
-  <si>
-    <t>Service providers receive customers with kindness and treat them with kindness</t>
-  </si>
-  <si>
-    <t>Service providers put the interest of their customers above all considerations</t>
-  </si>
-  <si>
-    <t>Service providers are always ready to respond promptly to customer requests</t>
-  </si>
-  <si>
-    <t>Service providers have the knowledge to answer customer questions</t>
-  </si>
-  <si>
-    <t>Easy and simple service procedures (fewer windows, requirements, mobility and visits)</t>
-  </si>
-  <si>
-    <t>Customers do not need to re-provide documents they have previously provided</t>
-  </si>
-  <si>
-    <t>The service is provided as promised (in terms of procedures and required documents).</t>
-  </si>
-  <si>
-    <t>The service is done correctly from the first time</t>
-  </si>
-  <si>
-    <t>The service is completed on time</t>
-  </si>
-  <si>
-    <t>The service providers are fluent in the language I use</t>
-  </si>
-  <si>
-    <t>Service Fee Suitable</t>
-  </si>
-  <si>
-    <t>The process of paying for the service is easy</t>
-  </si>
-  <si>
-    <t>The Corporation informs customers of the progress of the service procedures (status) if necessary</t>
-  </si>
-  <si>
-    <t>The establishment responds to customer complaints quickly and effectively</t>
-  </si>
-  <si>
-    <t>The Foundation provides customers with opportunities to evaluate the service and submit suggestions</t>
-  </si>
-  <si>
-    <t>Overall, how happy are you with your journey as a customer</t>
-  </si>
-  <si>
-    <t>Overall, how happy are you with the value you got from this trip for effort and cost</t>
-  </si>
-  <si>
-    <t>What has made you happiest about this service's journey?</t>
-  </si>
-  <si>
-    <t>What bothered you the most about this service's journey?</t>
-  </si>
-  <si>
-    <t>On a scale of 1 to 10, where 1 is not at all likely and 10 is highly likely, how likely are you to recommend the service from this center, to family members and friends</t>
-  </si>
-  <si>
     <t>Pre-service</t>
   </si>
   <si>
-    <t>Access to the Service Center</t>
-  </si>
-  <si>
     <t>Entry and Waiting</t>
   </si>
   <si>
     <t>Service Delivery</t>
   </si>
   <si>
-    <t>After the visit</t>
-  </si>
-  <si>
     <t>ACADEMIC</t>
+  </si>
+  <si>
+    <t>Q244_11</t>
+  </si>
+  <si>
+    <t>High school or below</t>
+  </si>
+  <si>
+    <t>GCC local</t>
+  </si>
+  <si>
+    <t>Arab</t>
+  </si>
+  <si>
+    <t>North American</t>
+  </si>
+  <si>
+    <t>South American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service information is available through multiple channels </t>
+  </si>
+  <si>
+    <t>There are opportunities for enquiries through a variety of channels</t>
+  </si>
+  <si>
+    <t>Services are provided at convenient timings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitable parking spaces are available for all customer segments </t>
+  </si>
+  <si>
+    <t>Location of Customer Happiness Center is suitable and accessible</t>
+  </si>
+  <si>
+    <t>Service information is provided on bulletin boards</t>
+  </si>
+  <si>
+    <t>Reception is welcoming and seamless</t>
+  </si>
+  <si>
+    <t>Organization’s facilities are modern and appealing</t>
+  </si>
+  <si>
+    <t>Employees’ appearances are neat and suitable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting areas are suitable for different customer segments </t>
+  </si>
+  <si>
+    <t>Complimentary services such as (Wi-Fi, phone chargers, ..) are available in waiting areas</t>
+  </si>
+  <si>
+    <t>Waiting time is reasonable</t>
+  </si>
+  <si>
+    <t>Health and safety procedures are adhered to</t>
+  </si>
+  <si>
+    <t>Service employees receive customers with courtesy and kindness</t>
+  </si>
+  <si>
+    <t>Service employees understand the needs of their customers and have their best interest at heart</t>
+  </si>
+  <si>
+    <t>Employees are ready to promptly respond to customers’ requests</t>
+  </si>
+  <si>
+    <t>Service employees have the knowledge to answer customers’ questions</t>
+  </si>
+  <si>
+    <t>Service procedures are easy and simple (few windows, requirements, movements and visits)</t>
+  </si>
+  <si>
+    <t>Customers don’t need to resubmit documents they have submitted before</t>
+  </si>
+  <si>
+    <t>Service is provided as promised (in terms of procedures and required documents)</t>
+  </si>
+  <si>
+    <t>Service is performed “right the first time”</t>
+  </si>
+  <si>
+    <t>Service is performed at the promised time</t>
+  </si>
+  <si>
+    <t>Service employees fluently speak the language used by customers</t>
+  </si>
+  <si>
+    <t>Transaction fees are reasonable</t>
+  </si>
+  <si>
+    <t>Payment for service can be made easily</t>
+  </si>
+  <si>
+    <t>The organization keeps customers informed about the progress of service procedures (status) if needed</t>
+  </si>
+  <si>
+    <t>The organization responds to customers’ complaints quickly &amp; effectively</t>
+  </si>
+  <si>
+    <t>The organization provides the customers with opportunities to evaluate the services and make suggestions</t>
+  </si>
+  <si>
+    <t>Overall, to what extent are you happy with your customer journey?</t>
+  </si>
+  <si>
+    <t>Overall, to what extent are you happy with the value for money and efforts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the single issue that made you happier the most? </t>
+  </si>
+  <si>
+    <t>What was the single issue that annoyed you the most?</t>
+  </si>
+  <si>
+    <t>On a scale from 0 to 10 where 0 is Not At All Likely and 10 is Extremely Likely; how likely are you to recommend receiving the service from this center to your family members and friends?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibility </t>
+  </si>
+  <si>
+    <t>Post Visit</t>
+  </si>
+  <si>
+    <t>Register Sales Contract</t>
+  </si>
+  <si>
+    <t>Renew Plot Document Request</t>
+  </si>
+  <si>
+    <t>Internal Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estates and Inheritance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +818,18 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -877,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -895,181 +910,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6C5304B3-515E-4F56-91FE-BFA442C795B8}"/>
   </tableStyles>
@@ -1146,8 +1011,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tbl_Services" displayName="tbl_Services" ref="A1:C28">
-  <autoFilter ref="A1:C28" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tbl_Services" displayName="tbl_Services" ref="A1:C29">
+  <autoFilter ref="A1:C29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="SERVICE"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="arabic"/>
@@ -1444,19 +1309,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="5" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1465,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1473,29 +1340,29 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1514,15 +1381,17 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1531,26 +1400,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1565,18 +1434,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1585,103 +1456,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1698,16 +1569,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1716,48 +1587,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1773,18 +1644,20 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="4" width="43.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1793,63 +1666,63 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1866,21 +1739,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="5" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1889,304 +1762,316 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>91</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C21" t="s">
         <v>93</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>94</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C23" t="s">
         <v>99</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>103</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>98</v>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2198,447 +2083,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0061E2EE-40E6-466C-B023-81B220A82753}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="60.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C6" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C7" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C8" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C9" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C10" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C11" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C12" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C13" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C14" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C15" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C16" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C17" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C18" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C19" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C20" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C21" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B22" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C22" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C23" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C24" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C25" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C26" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C27" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B28" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C28" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C29" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B30" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C30" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C31" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B32" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C32" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B33" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C33" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B34" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C34" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>188</v>
       </c>
-      <c r="C30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B35" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>190</v>
       </c>
-      <c r="C31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>197</v>
-      </c>
-      <c r="B35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>199</v>
-      </c>
-      <c r="B36" t="s">
-        <v>200</v>
       </c>
       <c r="C36" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" t="s">
-        <v>202</v>
+        <v>192</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="C37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" t="s">
-        <v>204</v>
-      </c>
-      <c r="C38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{07d1db28-aa8a-45b3-822b-20bcab1808cd}" enabled="0" method="" siteId="{07d1db28-aa8a-45b3-822b-20bcab1808cd}" removed="1"/>
+</clbl:labelList>
 </file>